--- a/thirteen_fitting_arch_compressive_failure_probability_data.xlsx
+++ b/thirteen_fitting_arch_compressive_failure_probability_data.xlsx
@@ -8,115 +8,149 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/fn20944_bristol_ac_uk/Documents/YEAR 3_2022-23/RESOURCES FOR FRAGILITY CURVE FRAMEWORK/PROGRAMMING CODES/arch_compression/AFTER THE IALCEE PAPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="814" documentId="11_00258137CE119373B8E09673EFF2D3C2945C4B2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE4369A-E4C9-4713-BC18-950B19159470}"/>
+  <xr:revisionPtr revIDLastSave="881" documentId="11_00258137CE119373B8E09673EFF2D3C2945C4B2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{207CDB73-69E7-4D50-852A-30E1C215F168}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15840" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baker_2015" sheetId="4" r:id="rId1"/>
     <sheet name="qeshta_et_al_2021" sheetId="2" r:id="rId2"/>
     <sheet name="failure_probability_data" sheetId="1" r:id="rId3"/>
     <sheet name="failure_probability_data_fit" sheetId="3" r:id="rId4"/>
+    <sheet name="failure_probability_data_fit_uf" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">baker_2015!$K$1:$K$2</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">failure_probability_data_fit!$K$1:$K$2</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">failure_probability_data_fit_uf!$K$1:$K$2</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">qeshta_et_al_2021!$K$1:$K$2</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">baker_2015!$K$1</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">failure_probability_data_fit!$K$1</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">failure_probability_data_fit_uf!$K$1</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">qeshta_et_al_2021!$K$1</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">baker_2015!$K$2</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">failure_probability_data_fit!$K$2</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">failure_probability_data_fit_uf!$K$2</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">qeshta_et_al_2021!$K$2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">baker_2015!$H$11</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">failure_probability_data_fit!$H$13</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">failure_probability_data_fit_uf!$H$13</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">qeshta_et_al_2021!$H$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -190,8 +224,56 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9B984740-C631-4B2E-B4A1-AB48353B57AF}</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{9B984740-C631-4B2E-B4A1-AB48353B57AF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Computational underflow.
+https://stackoverflow.com/questions/22201913/computing-a-binomial-probability-for-huge-numbers</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3E630819-4A73-45D4-82DC-256B1C9B572D}</author>
+    <author>tc={2A1EE9F4-9644-4189-8665-B3F147B9E3C5}</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3E630819-4A73-45D4-82DC-256B1C9B572D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    It was 100_000.
+100 to test underflow.</t>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{2A1EE9F4-9644-4189-8665-B3F147B9E3C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Computational underflow.
+https://stackoverflow.com/questions/22201913/computing-a-binomial-probability-for-huge-numbers</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
   <si>
     <t>pier_local_scour_depths</t>
   </si>
@@ -2051,94 +2133,94 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3436172620323989E-160</c:v>
+                  <c:v>9.3961795344856949E-142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5850342620364821E-90</c:v>
+                  <c:v>1.5453333563088775E-76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3022585512404321E-58</c:v>
+                  <c:v>8.6487895091324688E-48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0077322857278932E-40</c:v>
+                  <c:v>1.3589134068097665E-31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0263795053805497E-28</c:v>
+                  <c:v>1.9980541526792829E-21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0608139575799717E-20</c:v>
+                  <c:v>1.1480633689343322E-14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1996708619690128E-15</c:v>
+                  <c:v>4.9475277457098632E-10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9919942945133642E-11</c:v>
+                  <c:v>8.2199877545691417E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4688981457129929E-8</c:v>
+                  <c:v>1.4163230658490063E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2588006199466745E-5</c:v>
+                  <c:v>4.7983216553849645E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3333762556427458E-4</c:v>
+                  <c:v>4.9559334641561072E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.9031950624738698E-3</c:v>
+                  <c:v>0.21471316828982107</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2275263231321742E-2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18630493835133147</c:v>
+                  <c:v>0.76778952670410139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4166369616716914</c:v>
+                  <c:v>0.92112469670895136</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.66516952355096381</c:v>
+                  <c:v>0.97980779351185121</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8473404987547537</c:v>
+                  <c:v>0.99595482233293198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94400996260890102</c:v>
+                  <c:v>0.99934216072461846</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98312735219743286</c:v>
+                  <c:v>0.99991026330599408</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99572402632093771</c:v>
+                  <c:v>0.99998943704655308</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99906809184891932</c:v>
+                  <c:v>0.99999890092727628</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99982175256342054</c:v>
+                  <c:v>0.9999998968331606</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99996953508715358</c:v>
+                  <c:v>0.9999999911121179</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99999527357209206</c:v>
+                  <c:v>0.99999999928695482</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9999993252292575</c:v>
+                  <c:v>0.99999999994606803</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99999991029587521</c:v>
+                  <c:v>0.99999999999611378</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9999999887809099</c:v>
+                  <c:v>0.99999999999973077</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99999999866814726</c:v>
+                  <c:v>0.9999999999999819</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99999999984876087</c:v>
+                  <c:v>0.99999999999999878</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99999999998346134</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,31 +2309,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9501699776708563E-61</c:v>
+                  <c:v>3.5782450606397111E-50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0272971728851806E-22</c:v>
+                  <c:v>5.952840500526073E-16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.227517623824911E-9</c:v>
+                  <c:v>3.131032931325996E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6687661115795702E-3</c:v>
+                  <c:v>0.12246700046504959</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27992197620647974</c:v>
+                  <c:v>0.85085527354687951</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8881573797864839</c:v>
+                  <c:v>0.99774410387071533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.996914436215388</c:v>
+                  <c:v>0.99999354807490592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99997512049544246</c:v>
+                  <c:v>0.99999999326281874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99999991029587521</c:v>
+                  <c:v>0.99999999999611378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,6 +2342,593 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D5B7-475A-9903-AD4E80AE9AE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="848972512"/>
+        <c:axId val="848973168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="848972512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848973168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="848973168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848972512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lognormal_fitting</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>failure_probability_data_fit_uf!$M$2:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>failure_probability_data_fit_uf!$N$2:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3961795344856949E-142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5453333563088775E-76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6487895091324688E-48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3589134068097665E-31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9980541526792829E-21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1480633689343322E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9475277457098632E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2199877545691417E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4163230658490063E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7983216553849645E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9559334641561072E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21471316828982107</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76778952670410139</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92112469670895136</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97980779351185121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99595482233293198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99934216072461846</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99991026330599408</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99998943704655308</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99999890092727628</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9999998968331606</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9999999911121179</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99999999928695482</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99999999994606803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99999999999611378</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99999999999973077</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9999999999999819</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99999999999999878</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-368E-4C15-A727-997ED13724E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>failure_probability_data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>failure_probability_data_fit_uf!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28888888888888892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57777777777777783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1555555555555559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4444444444444451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.022222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>failure_probability_data_fit_uf!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5782450606397111E-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.952840500526073E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.131032931325996E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12246700046504959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85085527354687951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99774410387071533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99999354807490592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99999999326281874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99999999999611378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-368E-4C15-A727-997ED13724E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2598,6 +3267,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3631,6 +4340,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4253,6 +5478,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2618889D-C703-4CEF-BDC5-2414F1479E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4618,12 +5886,34 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G2" dT="2023-02-14T13:55:10.02" personId="{9CC475C1-7FD3-45EA-B992-FC3A0B9CBA60}" id="{9B984740-C631-4B2E-B4A1-AB48353B57AF}">
+    <text>Computational underflow.
+https://stackoverflow.com/questions/22201913/computing-a-binomial-probability-for-huge-numbers</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2023-02-14T14:23:11.09" personId="{9CC475C1-7FD3-45EA-B992-FC3A0B9CBA60}" id="{3E630819-4A73-45D4-82DC-256B1C9B572D}">
+    <text>It was 100_000.
+100 to test underflow.</text>
+  </threadedComment>
+  <threadedComment ref="G2" dT="2023-02-14T13:55:10.02" personId="{9CC475C1-7FD3-45EA-B992-FC3A0B9CBA60}" id="{2A1EE9F4-9644-4189-8665-B3F147B9E3C5}">
+    <text>Computational underflow.
+https://stackoverflow.com/questions/22201913/computing-a-binomial-probability-for-huge-numbers</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF060AB-5EE7-46B6-AEA0-A77F2FA7C631}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6362,7 +7652,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6525,10 +7815,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2349DA-4909-43F6-8DAD-E74E96140FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2349DA-4909-43F6-8DAD-E74E96140FF2}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6570,7 +7860,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5">
-        <v>1.5323288667381654</v>
+        <v>1.3</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>4</v>
@@ -6588,7 +7878,6 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>failure_probability_data!C2</f>
         <v>100000</v>
       </c>
       <c r="D2">
@@ -6634,7 +7923,7 @@
         <v>0.28888888888888892</v>
       </c>
       <c r="C3">
-        <f>failure_probability_data!C3</f>
+        <f>C2</f>
         <v>100000</v>
       </c>
       <c r="D3">
@@ -6646,23 +7935,23 @@
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="1">IFERROR(_xlfn.NORM.DIST(LN(B3),LN($K$1),$K$2, TRUE),"")</f>
-        <v>2.9501699776708563E-61</v>
+        <f>IFERROR(_xlfn.NORM.DIST(LN(B3),LN($K$1),$K$2, TRUE),"")</f>
+        <v>3.5782450606397111E-50</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="2">IFERROR(_xlfn.BINOM.DIST(D3, C3, F3, FALSE),"")</f>
+        <f>_xlfn.BINOM.DIST(D3, C3, F3, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H11" si="3">IFERROR(LN(G3),"")</f>
-        <v/>
+      <c r="H3" t="e">
+        <f>(LN(G3))</f>
+        <v>#NUM!</v>
       </c>
       <c r="M3">
         <v>0.1</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N32" si="4">_xlfn.NORM.DIST(LN(M3), LN($K$1), $K$2, TRUE)</f>
-        <v>3.3436172620323989E-160</v>
+        <f t="shared" ref="N3:N32" si="1">_xlfn.NORM.DIST(LN(M3), LN($K$1), $K$2, TRUE)</f>
+        <v>9.3961795344856949E-142</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -6674,7 +7963,7 @@
         <v>0.57777777777777783</v>
       </c>
       <c r="C4">
-        <f>failure_probability_data!C4</f>
+        <f t="shared" ref="C4:C11" si="2">C3</f>
         <v>100000</v>
       </c>
       <c r="D4">
@@ -6686,23 +7975,23 @@
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>3.0272971728851806E-22</v>
+        <f t="shared" ref="F4:F11" si="3">IFERROR(_xlfn.NORM.DIST(LN(B4),LN($K$1),$K$2, TRUE),"")</f>
+        <v>5.952840500526073E-16</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G4:G10" si="4">IFERROR(_xlfn.BINOM.DIST(D4, C4, F4, FALSE),"")</f>
         <v>0</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H4:H11" si="5">IFERROR(LN(G4),"")</f>
         <v/>
       </c>
       <c r="M4">
         <v>0.2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
-        <v>3.5850342620364821E-90</v>
+        <f t="shared" si="1"/>
+        <v>1.5453333563088775E-76</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -6714,7 +8003,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <f>failure_probability_data!C5</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="D5">
@@ -6726,23 +8015,23 @@
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>9.227517623824911E-9</v>
+        <f t="shared" si="3"/>
+        <v>3.131032931325996E-5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>3.9817650501192358E-66</v>
+      </c>
+      <c r="H5">
+        <f>IFERROR(LN(G5),"")</f>
+        <v>-150.58889093668938</v>
       </c>
       <c r="M5">
         <v>0.3</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
-        <v>1.3022585512404321E-58</v>
+        <f t="shared" si="1"/>
+        <v>8.6487895091324688E-48</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -6754,11 +8043,10 @@
         <v>1.1555555555555559</v>
       </c>
       <c r="C6">
-        <f>failure_probability_data!C6</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="D6">
-        <f>failure_probability_data!D6</f>
         <v>259</v>
       </c>
       <c r="E6">
@@ -6766,23 +8054,23 @@
         <v>2.5899999999999999E-3</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>2.6687661115795702E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.12246700046504959</v>
       </c>
       <c r="G6">
         <f>IFERROR(_xlfn.BINOM.DIST(D6, C6, F6, FALSE),"")</f>
-        <v>2.2057893946222259E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>-3.8140847390604944</v>
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="M6">
         <v>0.4</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
-        <v>2.0077322857278932E-40</v>
+        <f t="shared" si="1"/>
+        <v>1.3589134068097665E-31</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -6794,11 +8082,10 @@
         <v>1.4444444444444451</v>
       </c>
       <c r="C7">
-        <f>failure_probability_data!C7</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="D7">
-        <f>failure_probability_data!D7</f>
         <v>1880</v>
       </c>
       <c r="E7">
@@ -6806,8 +8093,8 @@
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.27992197620647974</v>
+        <f t="shared" si="3"/>
+        <v>0.85085527354687951</v>
       </c>
       <c r="G7">
         <f>IFERROR(_xlfn.BINOM.DIST(D7, C7, F7, FALSE),"")</f>
@@ -6821,8 +8108,8 @@
         <v>0.5</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
-        <v>1.0263795053805497E-28</v>
+        <f t="shared" si="1"/>
+        <v>1.9980541526792829E-21</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -6834,11 +8121,10 @@
         <v>1.7333333333333329</v>
       </c>
       <c r="C8">
-        <f>failure_probability_data!C8</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="D8">
-        <f>failure_probability_data!D8</f>
         <v>15286</v>
       </c>
       <c r="E8">
@@ -6846,23 +8132,23 @@
         <v>0.15286</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.8881573797864839</v>
+        <f t="shared" si="3"/>
+        <v>0.99774410387071533</v>
       </c>
       <c r="G8">
         <f>IFERROR(_xlfn.BINOM.DIST(D8, C8, F8, FALSE),"")</f>
         <v>0</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M8">
         <v>0.6</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
-        <v>1.0608139575799717E-20</v>
+        <f t="shared" si="1"/>
+        <v>1.1480633689343322E-14</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -6874,11 +8160,10 @@
         <v>2.022222222222223</v>
       </c>
       <c r="C9">
-        <f>failure_probability_data!C9</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="D9">
-        <f>failure_probability_data!D9</f>
         <v>74760</v>
       </c>
       <c r="E9">
@@ -6886,23 +8171,23 @@
         <v>0.74760000000000004</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.996914436215388</v>
+        <f t="shared" si="3"/>
+        <v>0.99999354807490592</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M9">
         <v>0.7</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
-        <v>5.1996708619690128E-15</v>
+        <f t="shared" si="1"/>
+        <v>4.9475277457098632E-10</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -6914,11 +8199,10 @@
         <v>2.3111111111111109</v>
       </c>
       <c r="C10">
-        <f>failure_probability_data!C10</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="D10">
-        <f>failure_probability_data!D10</f>
         <v>99995</v>
       </c>
       <c r="E10">
@@ -6926,23 +8210,23 @@
         <v>0.99995000000000001</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.99997512049544246</v>
+        <f t="shared" si="3"/>
+        <v>0.99999999326281874</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>6.5996574225047858E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.1557766209850663E-18</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
-        <v>-2.7181524439839508</v>
+        <f t="shared" si="5"/>
+        <v>-41.301759156756802</v>
       </c>
       <c r="M10">
         <v>0.8</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
-        <v>6.9919942945133642E-11</v>
+        <f t="shared" si="1"/>
+        <v>8.2199877545691417E-7</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -6954,11 +8238,10 @@
         <v>2.6</v>
       </c>
       <c r="C11">
-        <f>failure_probability_data!C11</f>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="D11">
-        <f>failure_probability_data!D11</f>
         <v>100000</v>
       </c>
       <c r="E11">
@@ -6966,23 +8249,23 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.99999991029587521</v>
+        <f t="shared" si="3"/>
+        <v>0.99999999999611378</v>
       </c>
       <c r="G11">
         <f>IFERROR(_xlfn.BINOM.DIST(D11, C11, F11, FALSE),"")</f>
-        <v>0.99106970123545957</v>
+        <v>0.99999961137760796</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
-        <v>-8.9704128818335668E-3</v>
+        <f t="shared" si="5"/>
+        <v>-3.8862246755832547E-7</v>
       </c>
       <c r="M11">
         <v>0.9</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
-        <v>7.4688981457129929E-8</v>
+        <f t="shared" si="1"/>
+        <v>1.4163230658490063E-4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -6990,24 +8273,24 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
-        <v>1.2588006199466745E-5</v>
+        <f t="shared" si="1"/>
+        <v>4.7983216553849645E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="e">
         <f>SUM(H2:H11)</f>
-        <v>-6.541207595926279</v>
+        <v>#NUM!</v>
       </c>
       <c r="M13">
         <v>1.1000000000000001</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
-        <v>5.3333762556427458E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.9559334641561072E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -7015,8 +8298,8 @@
         <v>1.2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
-        <v>7.9031950624738698E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.21471316828982107</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -7024,8 +8307,8 @@
         <v>1.3</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
-        <v>5.2275263231321742E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -7033,8 +8316,8 @@
         <v>1.4</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
-        <v>0.18630493835133147</v>
+        <f t="shared" si="1"/>
+        <v>0.76778952670410139</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.3">
@@ -7042,8 +8325,8 @@
         <v>1.5</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
-        <v>0.4166369616716914</v>
+        <f t="shared" si="1"/>
+        <v>0.92112469670895136</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.3">
@@ -7051,8 +8334,8 @@
         <v>1.6</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
-        <v>0.66516952355096381</v>
+        <f t="shared" si="1"/>
+        <v>0.97980779351185121</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.3">
@@ -7060,8 +8343,8 @@
         <v>1.7</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
-        <v>0.8473404987547537</v>
+        <f t="shared" si="1"/>
+        <v>0.99595482233293198</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.3">
@@ -7069,8 +8352,8 @@
         <v>1.8</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
-        <v>0.94400996260890102</v>
+        <f t="shared" si="1"/>
+        <v>0.99934216072461846</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.3">
@@ -7078,8 +8361,8 @@
         <v>1.9</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
-        <v>0.98312735219743286</v>
+        <f t="shared" si="1"/>
+        <v>0.99991026330599408</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.3">
@@ -7087,8 +8370,8 @@
         <v>2</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
-        <v>0.99572402632093771</v>
+        <f t="shared" si="1"/>
+        <v>0.99998943704655308</v>
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.3">
@@ -7096,8 +8379,8 @@
         <v>2.1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
-        <v>0.99906809184891932</v>
+        <f t="shared" si="1"/>
+        <v>0.99999890092727628</v>
       </c>
     </row>
     <row r="24" spans="13:14" x14ac:dyDescent="0.3">
@@ -7105,8 +8388,8 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
-        <v>0.99982175256342054</v>
+        <f t="shared" si="1"/>
+        <v>0.9999998968331606</v>
       </c>
     </row>
     <row r="25" spans="13:14" x14ac:dyDescent="0.3">
@@ -7114,8 +8397,8 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
-        <v>0.99996953508715358</v>
+        <f t="shared" si="1"/>
+        <v>0.9999999911121179</v>
       </c>
     </row>
     <row r="26" spans="13:14" x14ac:dyDescent="0.3">
@@ -7123,8 +8406,8 @@
         <v>2.4</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
-        <v>0.99999527357209206</v>
+        <f t="shared" si="1"/>
+        <v>0.99999999928695482</v>
       </c>
     </row>
     <row r="27" spans="13:14" x14ac:dyDescent="0.3">
@@ -7132,8 +8415,8 @@
         <v>2.5</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
-        <v>0.9999993252292575</v>
+        <f t="shared" si="1"/>
+        <v>0.99999999994606803</v>
       </c>
     </row>
     <row r="28" spans="13:14" x14ac:dyDescent="0.3">
@@ -7141,8 +8424,8 @@
         <v>2.6</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
-        <v>0.99999991029587521</v>
+        <f t="shared" si="1"/>
+        <v>0.99999999999611378</v>
       </c>
     </row>
     <row r="29" spans="13:14" x14ac:dyDescent="0.3">
@@ -7150,8 +8433,8 @@
         <v>2.7</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
-        <v>0.9999999887809099</v>
+        <f t="shared" si="1"/>
+        <v>0.99999999999973077</v>
       </c>
     </row>
     <row r="30" spans="13:14" x14ac:dyDescent="0.3">
@@ -7159,8 +8442,8 @@
         <v>2.8</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
-        <v>0.99999999866814726</v>
+        <f t="shared" si="1"/>
+        <v>0.9999999999999819</v>
       </c>
     </row>
     <row r="31" spans="13:14" x14ac:dyDescent="0.3">
@@ -7168,8 +8451,8 @@
         <v>2.9</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
-        <v>0.99999999984876087</v>
+        <f t="shared" si="1"/>
+        <v>0.99999999999999878</v>
       </c>
     </row>
     <row r="32" spans="13:14" x14ac:dyDescent="0.3">
@@ -7177,12 +8460,668 @@
         <v>3</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
-        <v>0.99999999998346134</v>
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6920674F-A2A4-4F04-ACE8-2975D0B5F620}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>failure_probability_data!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>0.69</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IFERROR(_xlfn.NORM.DIST(LN(B2),LN($K$1),$K$2, TRUE),"")</f>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f>IFERROR(_xlfn.BINOM.DIST(D2, C2, F2, FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <f>IFERROR(LN(G2),"")</f>
+        <v/>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>0.10129761122679606</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="e">
+        <f>_xlfn.NORM.DIST(LN(M2), LN($K$1), $K$2, TRUE)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>failure_probability_data!B3</f>
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="C3">
+        <f>C2</f>
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="0">D3/C3</f>
+        <v>0.69</v>
+      </c>
+      <c r="F3">
+        <f>IFERROR(_xlfn.NORM.DIST(LN(B3),LN($K$1),$K$2, TRUE),"")</f>
+        <v>3.5782450606397111E-50</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.BINOM.DIST(D3, C3, F3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="e">
+        <f>(LN(G3))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N32" si="1">_xlfn.NORM.DIST(LN(M3), LN($K$1), $K$2, TRUE)</f>
+        <v>9.3961795344856949E-142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>failure_probability_data!B4</f>
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C11" si="2">C3</f>
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="3">IFERROR(_xlfn.NORM.DIST(LN(B4),LN($K$1),$K$2, TRUE),"")</f>
+        <v>5.952840500526073E-16</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="4">IFERROR(_xlfn.BINOM.DIST(D4, C4, F4, FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H11" si="5">IFERROR(LN(G4),"")</f>
+        <v/>
+      </c>
+      <c r="M4">
+        <v>0.2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>1.5453333563088775E-76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>failure_probability_data!B5</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>3.131032931325996E-5</v>
+      </c>
+      <c r="G5">
+        <f>IFERROR(_xlfn.BINOM.DIST(D5, C5, F5, FALSE),"")</f>
+        <v>1.4644180749048014E-290</v>
+      </c>
+      <c r="H5">
+        <f>IFERROR(LN(G5),"")</f>
+        <v>-667.3682190232114</v>
+      </c>
+      <c r="M5">
+        <v>0.3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>8.6487895091324688E-48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>failure_probability_data!B6</f>
+        <v>1.1555555555555559</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.12246700046504959</v>
+      </c>
+      <c r="G6">
+        <f>IFERROR(_xlfn.BINOM.DIST(D6, C6, F6, FALSE),"")</f>
+        <v>4.3246098587357264E-54</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>-122.8752730914361</v>
+      </c>
+      <c r="M6">
+        <v>0.4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>1.3589134068097665E-31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>failure_probability_data!B7</f>
+        <v>1.4444444444444451</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.85085527354687951</v>
+      </c>
+      <c r="G7">
+        <f>IFERROR(_xlfn.BINOM.DIST(D7, C7, F7, FALSE),"")</f>
+        <v>1.2051844505002061E-3</v>
+      </c>
+      <c r="H7">
+        <f>IFERROR(LN(G7),"")</f>
+        <v>-6.7211226527991537</v>
+      </c>
+      <c r="M7">
+        <v>0.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>1.9980541526792829E-21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>failure_probability_data!B8</f>
+        <v>1.7333333333333329</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>88</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.99774410387071533</v>
+      </c>
+      <c r="G8">
+        <f>IFERROR(_xlfn.BINOM.DIST(D8, C8, F8, FALSE),"")</f>
+        <v>1.4958207970416601E-17</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>-38.741271496595409</v>
+      </c>
+      <c r="M8">
+        <v>0.6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>1.1480633689343322E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>failure_probability_data!B9</f>
+        <v>2.022222222222223</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.99999354807490592</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>2.1624487043489003E-39</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>-89.029577387757527</v>
+      </c>
+      <c r="M9">
+        <v>0.7</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>4.9475277457098632E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>failure_probability_data!B10</f>
+        <v>2.3111111111111109</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.99999999326281874</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>1.0449941819297588E-33</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>-75.94129675093356</v>
+      </c>
+      <c r="M10">
+        <v>0.8</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>8.2199877545691417E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>failure_probability_data!B11</f>
+        <v>2.6</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.99999999999611378</v>
+      </c>
+      <c r="G11">
+        <f>IFERROR(_xlfn.BINOM.DIST(D11, C11, F11, FALSE),"")</f>
+        <v>0.99999999961137753</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>-3.8862246761530353E-10</v>
+      </c>
+      <c r="M11">
+        <v>0.9</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1.4163230658490063E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4.7983216553849645E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="e">
+        <f>SUM(H2:H11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>4.9559334641561072E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>1.2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0.21471316828982107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>1.3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>1.4</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0.76778952670410139</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>1.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>0.92112469670895136</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>1.6</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>0.97980779351185121</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>1.7</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0.99595482233293198</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>1.8</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>0.99934216072461846</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>1.9</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>0.99991026330599408</v>
+      </c>
+    </row>
+    <row r="22" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>0.99998943704655308</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>2.1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0.99999890092727628</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.9999998968331606</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0.9999999911121179</v>
+      </c>
+    </row>
+    <row r="26" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>2.4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0.99999999928695482</v>
+      </c>
+    </row>
+    <row r="27" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>2.5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.99999999994606803</v>
+      </c>
+    </row>
+    <row r="28" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>2.6</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0.99999999999611378</v>
+      </c>
+    </row>
+    <row r="29" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>2.7</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0.99999999999973077</v>
+      </c>
+    </row>
+    <row r="30" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>2.8</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0.9999999999999819</v>
+      </c>
+    </row>
+    <row r="31" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>2.9</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999878</v>
+      </c>
+    </row>
+    <row r="32" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/thirteen_fitting_arch_compressive_failure_probability_data.xlsx
+++ b/thirteen_fitting_arch_compressive_failure_probability_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/fn20944_bristol_ac_uk/Documents/YEAR 3_2022-23/RESOURCES FOR FRAGILITY CURVE FRAMEWORK/PROGRAMMING CODES/arch_compression/AFTER THE IALCEE PAPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="881" documentId="11_00258137CE119373B8E09673EFF2D3C2945C4B2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{207CDB73-69E7-4D50-852A-30E1C215F168}"/>
+  <xr:revisionPtr revIDLastSave="924" documentId="11_00258137CE119373B8E09673EFF2D3C2945C4B2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E68943E9-59E5-448E-890E-19680D0D9EA7}"/>
   <bookViews>
-    <workbookView xWindow="-15840" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baker_2015" sheetId="4" r:id="rId1"/>
@@ -18,139 +18,173 @@
     <sheet name="failure_probability_data" sheetId="1" r:id="rId3"/>
     <sheet name="failure_probability_data_fit" sheetId="3" r:id="rId4"/>
     <sheet name="failure_probability_data_fit_uf" sheetId="5" r:id="rId5"/>
+    <sheet name="failure_probability_data_logfit" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">baker_2015!$K$1:$K$2</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">failure_probability_data_fit!$K$1:$K$2</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">failure_probability_data_fit_uf!$K$1:$K$2</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">failure_probability_data_logfit!$O$1:$O$2</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">qeshta_et_al_2021!$K$1:$K$2</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">baker_2015!$K$1</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">failure_probability_data_fit!$K$1</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">failure_probability_data_fit_uf!$K$1</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">failure_probability_data_logfit!$O$1</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">qeshta_et_al_2021!$K$1</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">baker_2015!$K$2</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">failure_probability_data_fit!$K$2</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">failure_probability_data_fit_uf!$K$2</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">failure_probability_data_logfit!$O$2</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">qeshta_et_al_2021!$K$2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">baker_2015!$H$11</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">failure_probability_data_fit!$H$13</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">failure_probability_data_fit_uf!$H$13</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">failure_probability_data_logfit!$L$13</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">qeshta_et_al_2021!$H$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -272,8 +306,27 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={16431063-0B52-411C-AC67-132323F98930}</author>
+  </authors>
+  <commentList>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{16431063-0B52-411C-AC67-132323F98930}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Computational underflow.
+https://stackoverflow.com/questions/22201913/computing-a-binomial-probability-for-huge-numbers</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
   <si>
     <t>pier_local_scour_depths</t>
   </si>
@@ -310,6 +363,12 @@
   <si>
     <t>sum</t>
   </si>
+  <si>
+    <t>log n!</t>
+  </si>
+  <si>
+    <t>log x!</t>
+  </si>
 </sst>
 </file>
 
@@ -319,7 +378,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,12 +393,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -386,6 +439,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2929,6 +2983,593 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-368E-4C15-A727-997ED13724E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="848972512"/>
+        <c:axId val="848973168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="848972512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848973168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="848973168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848972512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lognormal_fitting</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>failure_probability_data_logfit!$Q$2:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>failure_probability_data_logfit!$R$2:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3961795344856949E-142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5453333563088775E-76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6487895091324688E-48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3589134068097665E-31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9980541526792829E-21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1480633689343322E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9475277457098632E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2199877545691417E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4163230658490063E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7983216553849645E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9559334641561072E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21471316828982107</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76778952670410139</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92112469670895136</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97980779351185121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99595482233293198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99934216072461846</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99991026330599408</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99998943704655308</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99999890092727628</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9999998968331606</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9999999911121179</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99999999928695482</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99999999994606803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99999999999611378</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99999999999973077</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9999999999999819</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99999999999999878</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A84A-4FA1-9A82-DBB381717992}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>failure_probability_data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>failure_probability_data_logfit!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28888888888888892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57777777777777783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1555555555555559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4444444444444451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.022222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>failure_probability_data_logfit!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5782450606397111E-50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.952840500526073E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.131032931325996E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12246700046504959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85085527354687951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99774410387071533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99999354807490592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99999999326281874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99999999999611378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A84A-4FA1-9A82-DBB381717992}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3307,6 +3948,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4856,6 +5537,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5515,6 +6712,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2618889D-C703-4CEF-BDC5-2414F1479E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA7000D-1121-4B10-B4E0-0C5FEEB8B7AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5908,6 +7148,15 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K2" dT="2023-02-14T13:55:10.02" personId="{9CC475C1-7FD3-45EA-B992-FC3A0B9CBA60}" id="{16431063-0B52-411C-AC67-132323F98930}">
+    <text>Computational underflow.
+https://stackoverflow.com/questions/22201913/computing-a-binomial-probability-for-huge-numbers</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF060AB-5EE7-46B6-AEA0-A77F2FA7C631}">
   <dimension ref="A1:X32"/>
@@ -7818,7 +9067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2349DA-4909-43F6-8DAD-E74E96140FF2}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8476,7 +9725,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9124,4 +10373,751 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DB3D32-9C18-49A2-98D6-772A13DBFFAC}">
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="26.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D2">
+        <v>100000</v>
+      </c>
+      <c r="E2">
+        <f>failure_probability_data!D2</f>
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <f>E2/D2</f>
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="G2">
+        <f>IFERROR(_xlfn.NORM.DIST(LN(C2),LN($O$1),$O$2, TRUE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="e">
+        <f>LOG10(FACT(D2))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K2">
+        <f>IFERROR(_xlfn.BINOM.DIST(E2, D2, G2, FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IFERROR(LN(K2),"")</f>
+        <v/>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>0.10129761122679606</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="e">
+        <f>_xlfn.NORM.DIST(LN(Q2), LN($O$1), $O$2, TRUE)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>failure_probability_data!B3</f>
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="C3">
+        <f>B3</f>
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>100000</v>
+      </c>
+      <c r="E3">
+        <f>failure_probability_data!D3</f>
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">E3/D3</f>
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="1">IFERROR(_xlfn.NORM.DIST(LN(C3),LN($O$1),$O$2, TRUE),"")</f>
+        <v>3.5782450606397111E-50</v>
+      </c>
+      <c r="H3" t="e">
+        <f t="shared" ref="H3:H11" si="2">LOG10(FACT(D3))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K3">
+        <f>_xlfn.BINOM.DIST(E3, D3, G3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="e">
+        <f>(LN(K3))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q3">
+        <v>0.1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R32" si="3">_xlfn.NORM.DIST(LN(Q3), LN($O$1), $O$2, TRUE)</f>
+        <v>9.3961795344856949E-142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>failure_probability_data!B4</f>
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C11" si="4">B4</f>
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D11" si="5">D3</f>
+        <v>100000</v>
+      </c>
+      <c r="E4">
+        <f>failure_probability_data!D4</f>
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>5.952840500526073E-16</v>
+      </c>
+      <c r="H4" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="6">IFERROR(_xlfn.BINOM.DIST(E4, D4, G4, FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L11" si="7">IFERROR(LN(K4),"")</f>
+        <v/>
+      </c>
+      <c r="Q4">
+        <v>0.2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>1.5453333563088775E-76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>failure_probability_data!B5</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="4"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="E5">
+        <f>failure_probability_data!D5</f>
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3.131032931325996E-5</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>3.9817650501192358E-66</v>
+      </c>
+      <c r="L5">
+        <f>IFERROR(LN(K5),"")</f>
+        <v>-150.58889093668938</v>
+      </c>
+      <c r="Q5">
+        <v>0.3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>8.6487895091324688E-48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>failure_probability_data!B6</f>
+        <v>1.1555555555555559</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="4"/>
+        <v>1.1555555555555559</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="E6">
+        <v>259</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.12246700046504959</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K6">
+        <f>IFERROR(_xlfn.BINOM.DIST(E6, D6, G6, FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q6">
+        <v>0.4</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>1.3589134068097665E-31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>failure_probability_data!B7</f>
+        <v>1.4444444444444451</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="4"/>
+        <v>1.4444444444444451</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="E7">
+        <v>1880</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.85085527354687951</v>
+      </c>
+      <c r="H7" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K7">
+        <f>IFERROR(_xlfn.BINOM.DIST(E7, D7, G7, FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
+        <f>IFERROR(LN(K7),"")</f>
+        <v/>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>1.9980541526792829E-21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>failure_probability_data!B8</f>
+        <v>1.7333333333333329</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="4"/>
+        <v>1.7333333333333329</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="E8">
+        <v>15286</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.15286</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.99774410387071533</v>
+      </c>
+      <c r="H8" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8">
+        <f>IFERROR(_xlfn.BINOM.DIST(E8, D8, G8, FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q8">
+        <v>0.6</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>1.1480633689343322E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>failure_probability_data!B9</f>
+        <v>2.022222222222223</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>2.022222222222223</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="E9">
+        <v>74760</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.99999354807490592</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q9">
+        <v>0.7</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>4.9475277457098632E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>failure_probability_data!B10</f>
+        <v>2.3111111111111109</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>2.3111111111111109</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="E10">
+        <v>99995</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.99999999326281874</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>1.1557766209850663E-18</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>-41.301759156756802</v>
+      </c>
+      <c r="Q10">
+        <v>0.8</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>8.2199877545691417E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>failure_probability_data!B11</f>
+        <v>2.6</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>2.6</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="E11">
+        <v>100000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.99999999999611378</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K11">
+        <f>IFERROR(_xlfn.BINOM.DIST(E11, D11, G11, FALSE),"")</f>
+        <v>0.99999961137760796</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>-3.8862246755832547E-7</v>
+      </c>
+      <c r="Q11">
+        <v>0.9</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>1.4163230658490063E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>4.7983216553849645E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="e">
+        <f>SUM(L2:L11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>4.9559334641561072E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>1.2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0.21471316828982107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <v>1.3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>1.4</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0.76778952670410139</v>
+      </c>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>1.5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0.92112469670895136</v>
+      </c>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>1.6</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0.97980779351185121</v>
+      </c>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>1.7</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0.99595482233293198</v>
+      </c>
+    </row>
+    <row r="20" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>1.8</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0.99934216072461846</v>
+      </c>
+    </row>
+    <row r="21" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>1.9</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0.99991026330599408</v>
+      </c>
+    </row>
+    <row r="22" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0.99998943704655308</v>
+      </c>
+    </row>
+    <row r="23" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <v>2.1</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0.99999890092727628</v>
+      </c>
+    </row>
+    <row r="24" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0.9999998968331606</v>
+      </c>
+    </row>
+    <row r="25" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0.9999999911121179</v>
+      </c>
+    </row>
+    <row r="26" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <v>2.4</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0.99999999928695482</v>
+      </c>
+    </row>
+    <row r="27" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <v>2.5</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0.99999999994606803</v>
+      </c>
+    </row>
+    <row r="28" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <v>2.6</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0.99999999999611378</v>
+      </c>
+    </row>
+    <row r="29" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <v>2.7</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0.99999999999973077</v>
+      </c>
+    </row>
+    <row r="30" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <v>2.8</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0.9999999999999819</v>
+      </c>
+    </row>
+    <row r="31" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <v>2.9</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999878</v>
+      </c>
+    </row>
+    <row r="32" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>